--- a/m6A papers/6mA papers_new.xlsx
+++ b/m6A papers/6mA papers_new.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6DB712-A8C7-4679-9C63-98D37DA5B93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711E24DB-3861-487D-84D8-18529A4AA23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="540" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="136">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,255 +192,341 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GC6mA-Pred</t>
+  </si>
+  <si>
+    <t>GLF6mA: A Novel Model for N6-Methyladenine DNA Methylation Identification With Gene Expression Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLF6mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC6mA-Pred: A deep learning approach to identify DNA N6-methyladenine sites in the rice genome </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6mA-CNN</t>
+  </si>
+  <si>
+    <t>i6mA-DNCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6mA-DNCP: Computational Identification of DNA N-6-Methyladenine Sites in the Rice Genome Using Optimized Dinucleotide-Based Features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6mA-Fuse: improved and robust prediction of DNA 6 mA sites in the Rosaceae genome by fusing multiple feature representation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLANT MOLECULAR BIOLOGY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6mA-Fuse</t>
+  </si>
+  <si>
+    <t>i6mA-Pred: identifying DNA N-6 - methyladenine sites in the rice genome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BIOINFORMATICS</t>
-  </si>
-  <si>
-    <t>DeepSignal: detecting DNA methylation state from Nanopore sequencing reads using deep-learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeepSignal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC6mA-Pred</t>
-  </si>
-  <si>
-    <t>GLF6mA: A Novel Model for N6-Methyladenine DNA Methylation Identification With Gene Expression Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GLF6mA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC6mA-Pred: A deep learning approach to identify DNA N6-methyladenine sites in the rice genome </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6mA-Pred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>im6A-TS-CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>im6A-TS-CNN: Identifying the N6-Methyladenine Site in Multiple Tissues by Using the Convolutional Neural Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOLECULAR THERAPY-NUCLEIC ACIDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMethyl-Deep: N6 Methyladenosine Identification of Yeast Genome with Automatic Feature Extraction Technique by Using Deep Learning Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMethyl-Deep</t>
+  </si>
+  <si>
+    <t>CHEMOMETRICS AND INTELLIGENT LABORATORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iN6-Methyl (5-step): Identifying RNA N6-methyladenosine sites using deep learning mode via Chou's 5-step rules and Chou's general PseKNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leveraging the attention mechanism to improve the identification of DNA N6-methyladenine sites</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRIEFINGS IN BIOINFORMATICS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m6ABRP: Predicting m6A-YTHDF2 Binding Regions via Sequence-based Properties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m6A-NeuralTool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m6A-NeuralTool: Convolution Neural Tool for RNA N6-Methyladenosine Site Identification in Different Species</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGF6mARice: prediction of DNA N6-methyladenine sites in rice by exploiting molecular graph feature and residual block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGF6mARice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plant6mA: A predictor for predicting N6-methyladenine sites with lightweight structure in plant genomes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plant6mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A CNN-Based RNA N6-Methyladenosine Site Predictor for Multiple Species Using Heterogeneous Features Representation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm6A-CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SICD6mA: Identifying 6mA sites using deep memory network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SICD6mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNNRice6mA: A Deep Learning Method for Predicting DNA N6-Methyladenine Sites in Rice Genome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRONTIERS IN GENETICS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNNRice6mA</t>
+  </si>
+  <si>
+    <t>CANCER LETTERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The epigenetic roles of DNA N-6-Methyladenine (6mA) modification in eukaryotes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS-m6A-DL: Tissue-specific identification of N6-methyladenosine sites using a universal deep learning model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS-m6A-DL</t>
+  </si>
+  <si>
+    <t>Computational identification of N6-methyladenosine sites in multiple tissues of mammals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>iRNA-m6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6mA-CNN: a convolution based computational approach towards identi_x000C_cation of DNA N6-methyladenine sites in rice genome</t>
+  </si>
+  <si>
+    <t>Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6mA-DNCP: Computational Identification of DNA N6-Methyladenine Sites in the Rice Genome Using Optimized Dinucleotide-Based Features</t>
+  </si>
+  <si>
+    <t>Genes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepM6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nature machine intelligence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have Read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A deep learning-based computational approach for discrimination of DNA N6-methyladenosine sites by fusing heterogeneous features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHEMOMETRICS AND INTELLIGENT LABORATORY SYSTEMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elucidation of DNA methylation on N6-adenine with deep learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imputing DNA Methylation by Transferred Learning Based Neural Network</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>i6mA-CNN</t>
-  </si>
-  <si>
-    <t>i6mA-DNCP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i6mA-DNCP: Computational Identification of DNA N-6-Methyladenine Sites in the Rice Genome Using Optimized Dinucleotide-Based Features</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i6mA-Fuse: improved and robust prediction of DNA 6 mA sites in the Rosaceae genome by fusing multiple feature representation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLANT MOLECULAR BIOLOGY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i6mA-Fuse</t>
-  </si>
-  <si>
-    <t>i6mA-Pred: identifying DNA N-6 - methyladenine sites in the rice genome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIOINFORMATICS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i6mA-Pred</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>im6A-TS-CNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>im6A-TS-CNN: Identifying the N6-Methyladenine Site in Multiple Tissues by Using the Convolutional Neural Network</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOLECULAR THERAPY-NUCLEIC ACIDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iMethyl-Deep: N6 Methyladenosine Identification of Yeast Genome with Automatic Feature Extraction Technique by Using Deep Learning Algorithm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iMethyl-Deep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCIENTIFIC REPORTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iN6-Methyl</t>
-  </si>
-  <si>
-    <t>CHEMOMETRICS AND INTELLIGENT LABORATORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iN6-Methyl (5-step): Identifying RNA N6-methyladenosine sites using deep learning mode via Chou's 5-step rules and Chou's general PseKNC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leveraging the attention mechanism to improve the identification of DNA N6-methyladenine sites</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRIEFINGS IN BIOINFORMATICS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m6ABRP: Predicting m6A-YTHDF2 Binding Regions via Sequence-based Properties</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m6A-NeuralTool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m6A-NeuralTool: Convolution Neural Tool for RNA N6-Methyladenosine Site Identification in Different Species</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MGF6mARice: prediction of DNA N6-methyladenine sites in rice by exploiting molecular graph feature and residual block</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MGF6mARice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plant6mA: A predictor for predicting N6-methyladenine sites with lightweight structure in plant genomes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plant6mA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A CNN-Based RNA N6-Methyladenosine Site Predictor for Multiple Species Using Heterogeneous Features Representation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pm6A-CNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SICD6mA: Identifying 6mA sites using deep memory network</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SICD6mA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNNRice6mA: A Deep Learning Method for Predicting DNA N6-Methyladenine Sites in Rice Genome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRONTIERS IN GENETICS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNNRice6mA</t>
-  </si>
-  <si>
-    <t>CANCER LETTERS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The epigenetic roles of DNA N-6-Methyladenine (6mA) modification in eukaryotes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS-m6A-DL: Tissue-specific identification of N6-methyladenosine sites using a universal deep learning model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS-m6A-DL</t>
-  </si>
-  <si>
-    <t>Computational identification of N6-methyladenosine sites in multiple tissues of mammals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Methods</t>
-  </si>
-  <si>
-    <t>iRNA-m6A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i6mA-CNN: a convolution based computational approach towards identi_x000C_cation of DNA N6-methyladenine sites in rice genome</t>
-  </si>
-  <si>
-    <t>Korea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Methods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i6mA-DNCP: Computational Identification of DNA N6-Methyladenine Sites in the Rice Genome Using Optimized Dinucleotide-Based Features</t>
-  </si>
-  <si>
-    <t>Genes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeepM6A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nature machine intelligence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Have Read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A deep learning-based computational approach for discrimination of DNA N6-methyladenosine sites by fusing heterogeneous features</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHEMOMETRICS AND INTELLIGENT LABORATORY SYSTEMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elucidation of DNA methylation on N6-adenine with deep learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Imputing DNA Methylation by Transferred Learning Based Neural Network</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i6mA-CNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCIENTIFIC REPORTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Species(length)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saccharomyces cerevisiae (51) Homo sapiens (41),Mus musculus (41)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2614,2260,1450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2614,2260,1451</t>
+  </si>
+  <si>
+    <t>2614,2260,1452</t>
+  </si>
+  <si>
+    <t>2614,2260,1453</t>
+  </si>
+  <si>
+    <t>2614,2260,1454</t>
+  </si>
+  <si>
+    <t>2614,2260,1455</t>
+  </si>
+  <si>
+    <t>2614,2260,1456</t>
+  </si>
+  <si>
+    <t>2614,2260,1457</t>
+  </si>
+  <si>
+    <t>2614,2260,1458</t>
+  </si>
+  <si>
+    <t>2614,2260,1459</t>
+  </si>
+  <si>
+    <t>2614,2260,1460</t>
+  </si>
+  <si>
+    <t>2614,2260,1461</t>
+  </si>
+  <si>
+    <t>2614,2260,1462</t>
+  </si>
+  <si>
+    <t>2614,2260,1463</t>
+  </si>
+  <si>
+    <t>2614,2260,1464</t>
+  </si>
+  <si>
+    <t>2614,2260,1465</t>
+  </si>
+  <si>
+    <t>2614,2260,1466</t>
+  </si>
+  <si>
+    <t>2614,2260,1467</t>
+  </si>
+  <si>
+    <t>2614,2260,1468</t>
+  </si>
+  <si>
+    <t>2614,2260,1469</t>
+  </si>
+  <si>
+    <t>2614,2260,1470</t>
+  </si>
+  <si>
+    <t>2614,2260,1471</t>
+  </si>
+  <si>
+    <t>2614,2260,1472</t>
+  </si>
+  <si>
+    <t>2614,2260,1473</t>
+  </si>
+  <si>
+    <t>2614,2260,1474</t>
+  </si>
+  <si>
+    <t>80.31,90.3,91.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -518,6 +604,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -798,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -810,12 +900,15 @@
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="5" max="5" width="64" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="84.140625" customWidth="1"/>
+    <col min="10" max="10" width="152.85546875" customWidth="1"/>
+    <col min="11" max="11" width="58.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -841,435 +934,543 @@
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>43</v>
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
       </c>
       <c r="F2">
         <v>2019</v>
       </c>
       <c r="G2">
-        <v>6.9370000000000003</v>
+        <v>3.4910000000000001</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
       <c r="I2">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G3">
-        <v>3.4910000000000001</v>
+        <v>7.2709999999999999</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
       </c>
       <c r="I3">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4">
+        <v>2019</v>
+      </c>
+      <c r="G4">
+        <v>4.5990000000000002</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4">
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5">
         <v>2020</v>
       </c>
-      <c r="G4">
-        <v>7.2709999999999999</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4">
-        <v>42</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5">
-        <v>2019</v>
-      </c>
       <c r="G5">
-        <v>4.5990000000000002</v>
+        <v>3.367</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
       </c>
       <c r="I5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6">
+        <v>2019</v>
+      </c>
+      <c r="G6">
+        <v>4.0960000000000001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>2021</v>
+      </c>
+      <c r="G7">
+        <v>5.7190000000000003</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>21</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6">
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8">
         <v>2020</v>
       </c>
-      <c r="G6">
-        <v>3.367</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6">
-        <v>33</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7">
-        <v>2019</v>
-      </c>
-      <c r="G7">
-        <v>4.0960000000000001</v>
-      </c>
-      <c r="H7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7">
-        <v>24</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8">
-        <v>2021</v>
-      </c>
       <c r="G8">
-        <v>5.7190000000000003</v>
+        <v>8.8859999999999992</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
       </c>
       <c r="I8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="F9">
         <v>2020</v>
       </c>
       <c r="G9">
-        <v>8.8859999999999992</v>
+        <v>5.7539999999999996</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
       </c>
       <c r="I9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>2020</v>
       </c>
       <c r="G10">
-        <v>5.7539999999999996</v>
+        <v>4.0960000000000001</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I10">
-        <v>16</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>96</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>2021</v>
+      </c>
+      <c r="G11">
+        <v>4.4749999999999996</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11">
-        <v>2020</v>
-      </c>
-      <c r="G11">
-        <v>4.0960000000000001</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11">
-        <v>14</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
       <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>4</v>
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
       </c>
       <c r="F12">
         <v>2021</v>
       </c>
       <c r="G12">
-        <v>4.4749999999999996</v>
+        <v>3.367</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I12">
         <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F13">
         <v>2021</v>
       </c>
-      <c r="G13">
-        <v>3.367</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
+      <c r="G13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>89</v>
+      <c r="D14" t="s">
+        <v>75</v>
       </c>
       <c r="F14">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I14">
         <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
       </c>
       <c r="F15">
         <v>2020</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>101</v>
+      <c r="G15">
+        <v>3.4910000000000001</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
       </c>
       <c r="I15">
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="F16">
         <v>2020</v>
       </c>
-      <c r="G16">
-        <v>3.4910000000000001</v>
-      </c>
-      <c r="H16" t="s">
-        <v>104</v>
+      <c r="G16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="I16">
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
       <c r="D17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>2020</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>101</v>
+        <v>2021</v>
+      </c>
+      <c r="G17">
+        <v>7.7210000000000001</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F18">
         <v>2021</v>
       </c>
       <c r="G18">
-        <v>7.7210000000000001</v>
+        <v>4.38</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
@@ -1277,178 +1478,217 @@
       <c r="I18">
         <v>3</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F19">
         <v>2021</v>
       </c>
       <c r="G19">
-        <v>4.38</v>
+        <v>2.984</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
+      <c r="E20" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F20">
         <v>2021</v>
       </c>
       <c r="G20">
-        <v>2.984</v>
+        <v>11.622</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>68</v>
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
       </c>
       <c r="F21">
         <v>2021</v>
       </c>
       <c r="G21">
-        <v>11.622</v>
+        <v>2.6789999999999998</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="F22">
-        <v>2021</v>
-      </c>
-      <c r="G22">
-        <v>2.6789999999999998</v>
-      </c>
-      <c r="H22" t="s">
-        <v>18</v>
+        <v>2022</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
+        <v>69</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F23">
         <v>2022</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>101</v>
+      <c r="G23">
+        <v>11.622</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>68</v>
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
       </c>
       <c r="F24">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G24">
-        <v>11.622</v>
+        <v>4.0960000000000001</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F25">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G25">
-        <v>4.0960000000000001</v>
+        <v>3.367</v>
       </c>
       <c r="H25" t="s">
         <v>18</v>
@@ -1456,312 +1696,304 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>13</v>
       </c>
-      <c r="E26" t="s">
-        <v>36</v>
+      <c r="D26" t="s">
+        <v>45</v>
       </c>
       <c r="F26">
-        <v>2020</v>
-      </c>
-      <c r="G26">
-        <v>3.367</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
+        <v>2022</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F27">
         <v>2022</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
       </c>
       <c r="F28">
         <v>2022</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>75</v>
+        <v>103</v>
+      </c>
+      <c r="E29" t="s">
+        <v>104</v>
       </c>
       <c r="F29">
-        <v>2022</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>101</v>
+        <v>2021</v>
+      </c>
+      <c r="G29">
+        <v>4.38</v>
+      </c>
+      <c r="H29" t="s">
+        <v>100</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30">
-        <v>2021</v>
-      </c>
-      <c r="G30">
-        <v>4.38</v>
-      </c>
-      <c r="H30" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45">
+        <v>2019</v>
+      </c>
+      <c r="G45">
+        <v>6.9370000000000003</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45">
+        <v>120</v>
+      </c>
+      <c r="J45" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F46">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G46">
-        <v>6.9370000000000003</v>
+        <v>4.0759999999999996</v>
       </c>
       <c r="H46" t="s">
         <v>16</v>
       </c>
       <c r="I46">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="J46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F47">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G47">
-        <v>4.0759999999999996</v>
+        <v>4.2409999999999997</v>
       </c>
       <c r="H47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I47">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J47" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F48">
         <v>2019</v>
       </c>
       <c r="G48">
-        <v>4.2409999999999997</v>
+        <v>4.0960000000000001</v>
       </c>
       <c r="H48" t="s">
         <v>18</v>
       </c>
       <c r="I48">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J48" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>13</v>
       </c>
-      <c r="D49" t="s">
-        <v>51</v>
-      </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F49">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G49">
-        <v>4.0960000000000001</v>
+        <v>4.2409999999999997</v>
       </c>
       <c r="H49" t="s">
         <v>18</v>
       </c>
       <c r="I49">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J49" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="F50">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G50">
-        <v>4.2409999999999997</v>
+        <v>8.6790000000000003</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I50">
-        <v>9</v>
-      </c>
-      <c r="J50" t="s">
-        <v>41</v>
+        <v>5</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="F51">
         <v>2020</v>
       </c>
       <c r="G51">
-        <v>8.6790000000000003</v>
+        <v>3.4910000000000001</v>
       </c>
       <c r="H51" t="s">
         <v>16</v>
       </c>
       <c r="I51">
-        <v>5</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>84</v>
+        <v>3</v>
+      </c>
+      <c r="J51" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F52">
-        <v>2020</v>
-      </c>
-      <c r="G52">
-        <v>3.4910000000000001</v>
-      </c>
-      <c r="H52" t="s">
-        <v>16</v>
+        <v>2021</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53">
-        <v>2021</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J40">
-    <sortCondition descending="1" ref="I2:I40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J39">
+    <sortCondition descending="1" ref="I2:I39"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="L2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/m6A papers/6mA papers_new.xlsx
+++ b/m6A papers/6mA papers_new.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711E24DB-3861-487D-84D8-18529A4AA23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="104">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,9 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i6mA-Fuse</t>
-  </si>
-  <si>
     <t>i6mA-Pred: identifying DNA N-6 - methyladenine sites in the rice genome</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,10 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i6mA-Pred</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>im6A-TS-CNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,110 +422,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Samples</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iN6-Methyl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Species(length)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saccharomyces cerevisiae (51) Homo sapiens (41),Mus musculus (41)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2614,2260,1450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2614,2260,1451</t>
-  </si>
-  <si>
-    <t>2614,2260,1452</t>
-  </si>
-  <si>
-    <t>2614,2260,1453</t>
-  </si>
-  <si>
-    <t>2614,2260,1454</t>
-  </si>
-  <si>
-    <t>2614,2260,1455</t>
-  </si>
-  <si>
-    <t>2614,2260,1456</t>
-  </si>
-  <si>
-    <t>2614,2260,1457</t>
-  </si>
-  <si>
-    <t>2614,2260,1458</t>
-  </si>
-  <si>
-    <t>2614,2260,1459</t>
-  </si>
-  <si>
-    <t>2614,2260,1460</t>
-  </si>
-  <si>
-    <t>2614,2260,1461</t>
-  </si>
-  <si>
-    <t>2614,2260,1462</t>
-  </si>
-  <si>
-    <t>2614,2260,1463</t>
-  </si>
-  <si>
-    <t>2614,2260,1464</t>
-  </si>
-  <si>
-    <t>2614,2260,1465</t>
-  </si>
-  <si>
-    <t>2614,2260,1466</t>
-  </si>
-  <si>
-    <t>2614,2260,1467</t>
-  </si>
-  <si>
-    <t>2614,2260,1468</t>
-  </si>
-  <si>
-    <t>2614,2260,1469</t>
-  </si>
-  <si>
-    <t>2614,2260,1470</t>
-  </si>
-  <si>
-    <t>2614,2260,1471</t>
-  </si>
-  <si>
-    <t>2614,2260,1472</t>
-  </si>
-  <si>
-    <t>2614,2260,1473</t>
-  </si>
-  <si>
-    <t>2614,2260,1474</t>
-  </si>
-  <si>
-    <t>80.31,90.3,91.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -591,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -604,10 +500,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -887,11 +779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -901,14 +793,11 @@
     <col min="5" max="5" width="64" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" customWidth="1"/>
     <col min="10" max="10" width="152.85546875" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -934,28 +823,19 @@
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2">
         <v>2019</v>
@@ -970,24 +850,15 @@
         <v>67</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -1005,24 +876,18 @@
         <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <v>2019</v>
@@ -1037,24 +902,18 @@
         <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -1072,21 +931,15 @@
         <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F6">
         <v>2019</v>
@@ -1095,22 +948,16 @@
         <v>4.0960000000000001</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I6">
         <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>13</v>
       </c>
@@ -1132,22 +979,16 @@
       <c r="J7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
         <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
       </c>
       <c r="F8">
         <v>2020</v>
@@ -1162,16 +1003,10 @@
         <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -1196,22 +1031,16 @@
       <c r="J9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -1229,16 +1058,10 @@
         <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -1263,22 +1086,16 @@
       <c r="J11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -1296,30 +1113,24 @@
         <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F13">
         <v>2021</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -1327,48 +1138,36 @@
       <c r="J13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F14">
         <v>2020</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I14">
         <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15">
         <v>2020</v>
@@ -1377,59 +1176,47 @@
         <v>3.4910000000000001</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I15">
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F16">
         <v>2020</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I16">
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
@@ -1447,16 +1234,10 @@
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -1481,14 +1262,8 @@
       <c r="J18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>13</v>
       </c>
@@ -1513,19 +1288,13 @@
       <c r="J19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F20">
         <v>2021</v>
@@ -1540,16 +1309,10 @@
         <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -1574,14 +1337,8 @@
       <c r="J21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>13</v>
       </c>
@@ -1589,16 +1346,16 @@
         <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F22">
         <v>2022</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1606,22 +1363,16 @@
       <c r="J22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F23">
         <v>2022</v>
@@ -1636,16 +1387,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -1670,14 +1415,8 @@
       <c r="J24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>13</v>
       </c>
@@ -1699,14 +1438,8 @@
       <c r="J25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>13</v>
       </c>
@@ -1717,10 +1450,10 @@
         <v>2022</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1728,14 +1461,8 @@
       <c r="J26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -1743,47 +1470,47 @@
         <v>2022</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F28">
         <v>2022</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F29">
         <v>2021</v>
@@ -1792,24 +1519,21 @@
         <v>4.38</v>
       </c>
       <c r="H29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>13</v>
       </c>
-      <c r="D45" t="s">
-        <v>55</v>
-      </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F45">
         <v>2019</v>
@@ -1824,16 +1548,13 @@
         <v>120</v>
       </c>
       <c r="J45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>11</v>
       </c>
-      <c r="D46" t="s">
-        <v>52</v>
-      </c>
       <c r="E46" t="s">
         <v>51</v>
       </c>
@@ -1880,9 +1601,6 @@
       <c r="C48" t="s">
         <v>13</v>
       </c>
-      <c r="D48" t="s">
-        <v>48</v>
-      </c>
       <c r="E48" t="s">
         <v>38</v>
       </c>
@@ -1930,7 +1648,7 @@
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F50">
         <v>2020</v>
@@ -1945,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.25">
@@ -1982,18 +1700,15 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J39">
+  <sortState ref="B2:J39">
     <sortCondition descending="1" ref="I2:I39"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="L2" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/m6A papers/6mA papers_new.xlsx
+++ b/m6A papers/6mA papers_new.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB7E21B-7348-4B48-9484-8736AAE0F451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="146">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,85 +353,254 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6mA-DNCP: Computational Identification of DNA N6-Methyladenine Sites in the Rice Genome Using Optimized Dinucleotide-Based Features</t>
+  </si>
+  <si>
+    <t>Genes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepM6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nature machine intelligence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have Read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A deep learning-based computational approach for discrimination of DNA N6-methyladenosine sites by fusing heterogeneous features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHEMOMETRICS AND INTELLIGENT LABORATORY SYSTEMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elucidation of DNA methylation on N6-adenine with deep learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imputing DNA Methylation by Transferred Learning Based Neural Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i6mA-CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCIENTIFIC REPORTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iN6-Methyl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Species</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>154000, 154000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>880, 880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15937, 15937</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11815, 11815</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22700, 22700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18335, 18335</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11191, 11191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1130, 1130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>725, 725</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1307, 1307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100, 2100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H. sapiens (41nt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M. musculus (41nt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S. cerevisiae (51nt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A. thaliana (101nt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mA-rice-Lv (41nt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mA-rice-Chen (41nt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A. thaliana (41nt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R. chinensis (41nt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F. vesca (41nt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D. melanogaster (41nt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross species (41bp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice (41bp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M. musculus (41bp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2768, 2768</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1934, 1934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice (41nt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E. coli (41nt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4303, 4303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>388, 388</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>i6mA-CNN: a convolution based computational approach towards identi_x000C_cation of DNA N6-methyladenine sites in rice genome</t>
-  </si>
-  <si>
-    <t>Korea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Methods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i6mA-DNCP: Computational Identification of DNA N6-Methyladenine Sites in the Rice Genome Using Optimized Dinucleotide-Based Features</t>
-  </si>
-  <si>
-    <t>Genes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeepM6A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nature machine intelligence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Have Read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A deep learning-based computational approach for discrimination of DNA N6-methyladenosine sites by fusing heterogeneous features</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHEMOMETRICS AND INTELLIGENT LABORATORY SYSTEMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elucidation of DNA methylation on N6-adenine with deep learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Imputing DNA Methylation by Transferred Learning Based Neural Network</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i6mA-CNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCIENTIFIC REPORTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iN6-Methyl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1417,  1417</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5733, 5733</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F. vesca (41)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R. chinensis (41)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S. cerevisiae (51)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3270, 3270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿資料集測其他人的工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mA-rice-Chen (41bp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19796, 19796</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,8 +630,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +648,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -500,6 +683,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -779,11 +978,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -793,11 +992,13 @@
     <col min="5" max="5" width="64" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" customWidth="1"/>
     <col min="10" max="10" width="152.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -823,16 +1024,25 @@
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -853,7 +1063,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -879,7 +1089,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -905,9 +1115,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -934,12 +1144,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6">
         <v>2019</v>
@@ -948,16 +1158,16 @@
         <v>4.0960000000000001</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I6">
         <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>13</v>
       </c>
@@ -980,7 +1190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -1006,7 +1216,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -1032,9 +1242,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1061,7 +1271,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -1087,9 +1297,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -1116,7 +1326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>13</v>
       </c>
@@ -1127,10 +1337,10 @@
         <v>2021</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -1139,7 +1349,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -1150,10 +1360,10 @@
         <v>2020</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I14">
         <v>5</v>
@@ -1162,12 +1372,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15">
         <v>2020</v>
@@ -1176,39 +1386,39 @@
         <v>3.4910000000000001</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I15">
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="F16">
         <v>2020</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I16">
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>82</v>
       </c>
@@ -1237,7 +1447,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -1263,7 +1473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>13</v>
       </c>
@@ -1289,246 +1499,480 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="F20">
-        <v>2021</v>
-      </c>
-      <c r="G20">
-        <v>11.622</v>
-      </c>
-      <c r="H20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
       </c>
       <c r="F21">
         <v>2021</v>
       </c>
       <c r="G21">
+        <v>11.622</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>2021</v>
+      </c>
+      <c r="G22">
         <v>2.6789999999999998</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>18</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22">
-        <v>2022</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>121</v>
+      </c>
+      <c r="L22" t="s">
+        <v>106</v>
+      </c>
+      <c r="M22">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J23" s="7"/>
+      <c r="K23" t="s">
+        <v>122</v>
+      </c>
+      <c r="L23" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J24" s="7"/>
+      <c r="K24" t="s">
+        <v>123</v>
+      </c>
+      <c r="L24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J25" s="7"/>
+      <c r="K25" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" t="s">
+        <v>109</v>
+      </c>
+      <c r="M25">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J26" s="7"/>
+      <c r="K26" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J27" s="7"/>
+      <c r="K27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L27" t="s">
+        <v>111</v>
+      </c>
+      <c r="M27">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J28" s="7"/>
+      <c r="K28" t="s">
+        <v>126</v>
+      </c>
+      <c r="L28" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29">
+        <v>2022</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D30" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F23">
+      <c r="F30">
         <v>2022</v>
       </c>
-      <c r="G23">
+      <c r="G30">
         <v>11.622</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H30" t="s">
         <v>16</v>
       </c>
-      <c r="I23">
+      <c r="I30">
         <v>0</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>25</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D31" t="s">
         <v>39</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E31" t="s">
         <v>38</v>
       </c>
-      <c r="F24">
+      <c r="F31">
         <v>2021</v>
       </c>
-      <c r="G24">
+      <c r="G31">
         <v>4.0960000000000001</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H31" t="s">
         <v>18</v>
       </c>
-      <c r="I24">
+      <c r="I31">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J31" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+      <c r="K31" t="s">
+        <v>117</v>
+      </c>
+      <c r="L31" t="s">
+        <v>113</v>
+      </c>
+      <c r="M31">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J32" s="8"/>
+      <c r="K32" t="s">
+        <v>118</v>
+      </c>
+      <c r="L32" t="s">
+        <v>114</v>
+      </c>
+      <c r="M32">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J33" s="8"/>
+      <c r="K33" t="s">
+        <v>119</v>
+      </c>
+      <c r="L33" t="s">
+        <v>115</v>
+      </c>
+      <c r="M33">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J34" s="8"/>
+      <c r="K34" t="s">
+        <v>120</v>
+      </c>
+      <c r="L34" t="s">
+        <v>116</v>
+      </c>
+      <c r="M34">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>13</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E35" t="s">
         <v>36</v>
       </c>
-      <c r="F25">
+      <c r="F35">
         <v>2020</v>
       </c>
-      <c r="G25">
+      <c r="G35">
         <v>3.367</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H35" t="s">
         <v>18</v>
       </c>
-      <c r="I25">
+      <c r="I35">
         <v>0</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J35" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="K35" t="s">
+        <v>127</v>
+      </c>
+      <c r="L35" t="s">
+        <v>130</v>
+      </c>
+      <c r="M35">
+        <v>0.98709999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J36" s="7"/>
+      <c r="K36" t="s">
+        <v>128</v>
+      </c>
+      <c r="L36" t="s">
+        <v>107</v>
+      </c>
+      <c r="M36">
+        <v>0.99239999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J37" s="7"/>
+      <c r="K37" t="s">
+        <v>129</v>
+      </c>
+      <c r="L37" t="s">
+        <v>131</v>
+      </c>
+      <c r="M37">
+        <v>0.99719999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>13</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D38" t="s">
         <v>45</v>
       </c>
-      <c r="F26">
+      <c r="F38">
         <v>2022</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26">
+      <c r="G38" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38">
         <v>0</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J38" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+      <c r="K38" t="s">
+        <v>132</v>
+      </c>
+      <c r="L38" t="s">
+        <v>107</v>
+      </c>
+      <c r="M38">
+        <v>0.9879</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="J39" s="7"/>
+      <c r="K39" t="s">
+        <v>125</v>
+      </c>
+      <c r="L39" t="s">
+        <v>134</v>
+      </c>
+      <c r="M39">
+        <v>0.99870000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="J40" s="7"/>
+      <c r="K40" t="s">
+        <v>133</v>
+      </c>
+      <c r="L40" t="s">
+        <v>135</v>
+      </c>
+      <c r="M40">
+        <v>0.95840000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="J41" s="7"/>
+      <c r="K41" t="s">
+        <v>120</v>
+      </c>
+      <c r="L41" t="s">
+        <v>116</v>
+      </c>
+      <c r="M41">
+        <v>0.99309999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>11</v>
       </c>
-      <c r="F27">
+      <c r="F42">
         <v>2022</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I27">
+      <c r="G42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42">
         <v>0</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43">
+        <v>2022</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28">
-        <v>2022</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28">
+      <c r="E44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44">
+        <v>2021</v>
+      </c>
+      <c r="G44">
+        <v>4.38</v>
+      </c>
+      <c r="H44" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44">
         <v>0</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29">
-        <v>2021</v>
-      </c>
-      <c r="G29">
-        <v>4.38</v>
-      </c>
-      <c r="H29" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K44" t="s">
+        <v>128</v>
+      </c>
+      <c r="L44" t="s">
+        <v>106</v>
+      </c>
+      <c r="M44">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>13</v>
       </c>
@@ -1550,8 +1994,17 @@
       <c r="J45" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>128</v>
+      </c>
+      <c r="L45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M45">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>11</v>
       </c>
@@ -1570,145 +2023,228 @@
       <c r="I46">
         <v>42</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+      <c r="K46" t="s">
+        <v>139</v>
+      </c>
+      <c r="L46" t="s">
+        <v>137</v>
+      </c>
+      <c r="M46">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J47" s="9"/>
+      <c r="K47" t="s">
+        <v>140</v>
+      </c>
+      <c r="L47" t="s">
+        <v>138</v>
+      </c>
+      <c r="M47">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>25</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>27</v>
-      </c>
-      <c r="F47">
-        <v>2019</v>
-      </c>
-      <c r="G47">
-        <v>4.2409999999999997</v>
-      </c>
-      <c r="H47" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47">
-        <v>36</v>
-      </c>
-      <c r="J47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" t="s">
-        <v>38</v>
       </c>
       <c r="F48">
         <v>2019</v>
       </c>
       <c r="G48">
-        <v>4.0960000000000001</v>
+        <v>4.2409999999999997</v>
       </c>
       <c r="H48" t="s">
         <v>18</v>
       </c>
       <c r="I48">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="K48" t="s">
+        <v>141</v>
+      </c>
+      <c r="L48" t="s">
+        <v>142</v>
+      </c>
+      <c r="M48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F49">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G49">
-        <v>4.2409999999999997</v>
+        <v>4.0960000000000001</v>
       </c>
       <c r="H49" t="s">
         <v>18</v>
       </c>
       <c r="I49">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49" t="s">
+        <v>132</v>
+      </c>
+      <c r="L49" t="s">
+        <v>107</v>
+      </c>
+      <c r="M49">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50">
+        <v>2021</v>
+      </c>
+      <c r="G50">
+        <v>4.2409999999999997</v>
+      </c>
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50">
         <v>9</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J50" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
         <v>11</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>77</v>
-      </c>
-      <c r="F50">
-        <v>2020</v>
-      </c>
-      <c r="G50">
-        <v>8.6790000000000003</v>
-      </c>
-      <c r="H50" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50">
-        <v>5</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" t="s">
-        <v>34</v>
       </c>
       <c r="F51">
         <v>2020</v>
       </c>
       <c r="G51">
-        <v>3.4910000000000001</v>
+        <v>8.6790000000000003</v>
       </c>
       <c r="H51" t="s">
         <v>16</v>
       </c>
       <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52">
+        <v>2020</v>
+      </c>
+      <c r="G52">
+        <v>3.4910000000000001</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52">
         <v>3</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J52" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+      <c r="K52" t="s">
+        <v>129</v>
+      </c>
+      <c r="L52" t="s">
+        <v>131</v>
+      </c>
+      <c r="M52">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J53" s="9"/>
+      <c r="K53" t="s">
+        <v>144</v>
+      </c>
+      <c r="L53" t="s">
+        <v>107</v>
+      </c>
+      <c r="M53">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>25</v>
       </c>
-      <c r="F52">
+      <c r="F54">
         <v>2021</v>
       </c>
-      <c r="I52">
+      <c r="I54">
         <v>0</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J54" t="s">
         <v>63</v>
       </c>
+      <c r="K54" t="s">
+        <v>117</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M54">
+        <v>0.66700000000000004</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="B2:J39">
-    <sortCondition descending="1" ref="I2:I39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J45">
+    <sortCondition descending="1" ref="I2:I45"/>
   </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J22:J28"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="J46:J47"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>